--- a/Templates/Security Test case.xlsx
+++ b/Templates/Security Test case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -188,27 +188,6 @@
     <t>Pre-Condition</t>
   </si>
   <si>
-    <t>Function A</t>
-  </si>
-  <si>
-    <t>Module1</t>
-  </si>
-  <si>
-    <t>Function B</t>
-  </si>
-  <si>
-    <t>Function C</t>
-  </si>
-  <si>
-    <t>Function D</t>
-  </si>
-  <si>
-    <t>Module2</t>
-  </si>
-  <si>
-    <t>Function E</t>
-  </si>
-  <si>
     <t>Module Code</t>
   </si>
   <si>
@@ -384,6 +363,9 @@
   </si>
   <si>
     <t>Test successful coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Application Security </t>
   </si>
 </sst>
 </file>
@@ -393,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -571,6 +553,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1211,7 +1198,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1705,6 +1692,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2288,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2383,69 +2371,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" ht="15">
       <c r="B9" s="141">
         <v>1</v>
       </c>
-      <c r="C9" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="143" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="143"/>
       <c r="E9" s="143"/>
       <c r="F9" s="144"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="141">
-        <v>2</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="143" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="143"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="144"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="141">
-        <v>3</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="143" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="143"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="144"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="141">
-        <v>4</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="143"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="141">
-        <v>5</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="143"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="2:6">
@@ -2470,39 +2432,11 @@
       <c r="F16" s="144"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="144"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="144"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="144"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="149"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2513,15 +2447,8 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D9" location="Module1!B10" display="Module1"/>
-    <hyperlink ref="D10" location="Module1!B14" display="Module1"/>
-    <hyperlink ref="D11" location="Module1!B17" display="Module1"/>
-    <hyperlink ref="D12" location="Module2!B10" display="Module2"/>
-    <hyperlink ref="D13" location="Module2!B14" display="Module2"/>
-  </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777772"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -2565,10 +2492,10 @@
     </row>
     <row r="2" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="191"/>
       <c r="D2" s="191"/>
@@ -2578,15 +2505,15 @@
       <c r="H2" s="45"/>
       <c r="I2" s="58"/>
       <c r="J2" s="37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" s="191" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="191"/>
       <c r="D3" s="191"/>
@@ -2596,12 +2523,12 @@
       <c r="H3" s="45"/>
       <c r="I3" s="58"/>
       <c r="J3" s="37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="192"/>
       <c r="C4" s="192"/>
@@ -2615,26 +2542,26 @@
     </row>
     <row r="5" spans="1:10" s="37" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E5" s="193" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5" s="193"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="60"/>
       <c r="J5" s="37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
@@ -2663,7 +2590,7 @@
       <c r="H6" s="52"/>
       <c r="I6" s="60"/>
       <c r="J6" s="37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="37" customFormat="1" ht="15" customHeight="1">
@@ -2676,25 +2603,25 @@
     </row>
     <row r="8" spans="1:10" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>24</v>
@@ -2703,19 +2630,19 @@
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1" ht="85.5" customHeight="1">
       <c r="A9" s="107" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E9" s="110" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" s="111"/>
       <c r="G9" s="66"/>
@@ -2724,19 +2651,19 @@
     </row>
     <row r="10" spans="1:10" s="38" customFormat="1" ht="114">
       <c r="A10" s="112" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D10" s="114" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E10" s="115" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F10" s="111"/>
       <c r="G10" s="66"/>
@@ -2745,19 +2672,19 @@
     </row>
     <row r="11" spans="1:10" ht="99.75">
       <c r="A11" s="112" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11" s="116" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -2766,19 +2693,19 @@
     </row>
     <row r="12" spans="1:10" ht="114">
       <c r="A12" s="112" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E12" s="115" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
@@ -2787,19 +2714,19 @@
     </row>
     <row r="13" spans="1:10" s="37" customFormat="1" ht="57">
       <c r="A13" s="117" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E13" s="120" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -3297,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3313,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
       <c r="B1" s="196" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" s="196"/>
       <c r="D1" s="196"/>
@@ -3377,16 +3304,16 @@
       <c r="F5" s="197"/>
       <c r="G5" s="7"/>
       <c r="H5" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6" s="195"/>
       <c r="E6" s="195"/>
@@ -3429,22 +3356,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3491,7 +3418,7 @@
       <c r="A13" s="20"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D13" s="28">
         <f>SUM(D9:D12)</f>
@@ -3528,7 +3455,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="34" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="35">
@@ -3536,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="36"/>
@@ -3545,7 +3472,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="35">
@@ -3553,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="36"/>
@@ -3582,15 +3509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3603,6 +3521,15 @@
     <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3980,12 +3907,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{254E4968-24A4-4F33-B0CC-3206B895FA58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4003,6 +3924,12 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs/>
